--- a/database/industries/ghaza/ghezar/product/quarterly_seprated.xlsx
+++ b/database/industries/ghaza/ghezar/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghezar\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghezar\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A22BE2-79AD-46C1-9C43-AEC11E26DD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3CFDBD-67E4-40E6-92C4-DC23E103E998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="64">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار فروش</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1399/09</t>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -694,12 +694,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -714,7 +714,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -731,7 +731,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -748,7 +748,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -763,7 +763,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -780,7 +780,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -797,7 +797,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -812,7 +812,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -849,7 +849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -864,7 +864,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -881,7 +881,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -892,21 +892,21 @@
       <c r="E11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>18</v>
+      <c r="F11" s="11">
+        <v>2074</v>
       </c>
       <c r="G11" s="11">
-        <v>2074</v>
+        <v>1438</v>
       </c>
       <c r="H11" s="11">
-        <v>1438</v>
+        <v>953</v>
       </c>
       <c r="I11" s="11">
-        <v>953</v>
-      </c>
-      <c r="J11" s="11">
         <v>788</v>
       </c>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K11" s="11" t="s">
         <v>18</v>
       </c>
@@ -920,7 +920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -929,11 +929,11 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>2026</v>
-      </c>
-      <c r="F12" s="13">
         <v>1925</v>
       </c>
+      <c r="F12" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G12" s="13" t="s">
         <v>18</v>
       </c>
@@ -946,20 +946,20 @@
       <c r="J12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>18</v>
+      <c r="K12" s="13">
+        <v>1616</v>
       </c>
       <c r="L12" s="13">
-        <v>1616</v>
+        <v>2250</v>
       </c>
       <c r="M12" s="13">
-        <v>2250</v>
+        <v>1588</v>
       </c>
       <c r="N12" s="13">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -970,7 +970,7 @@
       <c r="E13" s="11">
         <v>18</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="11" t="s">
@@ -985,8 +985,8 @@
       <c r="J13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>18</v>
+      <c r="K13" s="11">
+        <v>0</v>
       </c>
       <c r="L13" s="11">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -1007,11 +1007,11 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>35709</v>
-      </c>
-      <c r="F14" s="13">
         <v>42961</v>
       </c>
+      <c r="F14" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G14" s="13" t="s">
         <v>18</v>
       </c>
@@ -1024,20 +1024,20 @@
       <c r="J14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>18</v>
+      <c r="K14" s="13">
+        <v>26408</v>
       </c>
       <c r="L14" s="13">
-        <v>26408</v>
+        <v>21269</v>
       </c>
       <c r="M14" s="13">
-        <v>21269</v>
+        <v>26711</v>
       </c>
       <c r="N14" s="13">
-        <v>26711</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35679</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1046,11 +1046,11 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>6550</v>
-      </c>
-      <c r="F15" s="11">
         <v>8869</v>
       </c>
+      <c r="F15" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G15" s="11" t="s">
         <v>18</v>
       </c>
@@ -1063,20 +1063,20 @@
       <c r="J15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>18</v>
+      <c r="K15" s="11">
+        <v>7419</v>
       </c>
       <c r="L15" s="11">
-        <v>7419</v>
+        <v>7261</v>
       </c>
       <c r="M15" s="11">
-        <v>7261</v>
+        <v>8354</v>
       </c>
       <c r="N15" s="11">
-        <v>8354</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9468</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1085,11 +1085,11 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>583</v>
-      </c>
-      <c r="F16" s="13">
         <v>553</v>
       </c>
+      <c r="F16" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G16" s="13" t="s">
         <v>18</v>
       </c>
@@ -1102,8 +1102,8 @@
       <c r="J16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>18</v>
+      <c r="K16" s="13">
+        <v>0</v>
       </c>
       <c r="L16" s="13">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1124,11 +1124,11 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>300</v>
-      </c>
-      <c r="F17" s="11">
         <v>419</v>
       </c>
+      <c r="F17" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G17" s="11" t="s">
         <v>18</v>
       </c>
@@ -1141,8 +1141,8 @@
       <c r="J17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="11" t="s">
-        <v>18</v>
+      <c r="K17" s="11">
+        <v>0</v>
       </c>
       <c r="L17" s="11">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
@@ -1163,11 +1163,11 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>354</v>
-      </c>
-      <c r="F18" s="13">
         <v>508</v>
       </c>
+      <c r="F18" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G18" s="13" t="s">
         <v>18</v>
       </c>
@@ -1180,8 +1180,8 @@
       <c r="J18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="13" t="s">
-        <v>18</v>
+      <c r="K18" s="13">
+        <v>0</v>
       </c>
       <c r="L18" s="13">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1202,11 +1202,11 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>85</v>
-      </c>
-      <c r="F19" s="11">
         <v>222</v>
       </c>
+      <c r="F19" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G19" s="11" t="s">
         <v>18</v>
       </c>
@@ -1219,8 +1219,8 @@
       <c r="J19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>18</v>
+      <c r="K19" s="11">
+        <v>0</v>
       </c>
       <c r="L19" s="11">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>27</v>
       </c>
@@ -1241,11 +1241,11 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>231</v>
-      </c>
-      <c r="F20" s="13">
         <v>672</v>
       </c>
+      <c r="F20" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G20" s="13" t="s">
         <v>18</v>
       </c>
@@ -1258,8 +1258,8 @@
       <c r="J20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>18</v>
+      <c r="K20" s="13">
+        <v>0</v>
       </c>
       <c r="L20" s="13">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1282,21 +1282,21 @@
       <c r="E21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>18</v>
+      <c r="F21" s="11">
+        <v>33296</v>
       </c>
       <c r="G21" s="11">
-        <v>33296</v>
+        <v>40779</v>
       </c>
       <c r="H21" s="11">
-        <v>40779</v>
+        <v>48423</v>
       </c>
       <c r="I21" s="11">
-        <v>48423</v>
-      </c>
-      <c r="J21" s="11">
         <v>35326</v>
       </c>
+      <c r="J21" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K21" s="11" t="s">
         <v>18</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>29</v>
       </c>
@@ -1321,35 +1321,35 @@
       <c r="E22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>18</v>
+      <c r="F22" s="13">
+        <v>1606</v>
       </c>
       <c r="G22" s="13">
-        <v>1606</v>
+        <v>1193</v>
       </c>
       <c r="H22" s="13">
-        <v>1193</v>
+        <v>1504</v>
       </c>
       <c r="I22" s="13">
-        <v>1504</v>
-      </c>
-      <c r="J22" s="13">
         <v>1338</v>
       </c>
-      <c r="K22" s="13" t="s">
-        <v>18</v>
+      <c r="J22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="13">
+        <v>577</v>
       </c>
       <c r="L22" s="13">
-        <v>577</v>
+        <v>1576</v>
       </c>
       <c r="M22" s="13">
-        <v>1576</v>
+        <v>1382</v>
       </c>
       <c r="N22" s="13">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
@@ -1360,21 +1360,21 @@
       <c r="E23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>18</v>
+      <c r="F23" s="11">
+        <v>8197</v>
       </c>
       <c r="G23" s="11">
-        <v>8197</v>
+        <v>6763</v>
       </c>
       <c r="H23" s="11">
-        <v>6763</v>
+        <v>10345</v>
       </c>
       <c r="I23" s="11">
-        <v>10345</v>
-      </c>
-      <c r="J23" s="11">
         <v>10366</v>
       </c>
+      <c r="J23" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K23" s="11" t="s">
         <v>18</v>
       </c>
@@ -1388,44 +1388,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15">
-        <v>45856</v>
+        <v>56147</v>
       </c>
       <c r="F24" s="15">
-        <v>56147</v>
+        <v>45173</v>
       </c>
       <c r="G24" s="15">
-        <v>45173</v>
+        <v>50173</v>
       </c>
       <c r="H24" s="15">
-        <v>50173</v>
+        <v>61225</v>
       </c>
       <c r="I24" s="15">
-        <v>61225</v>
+        <v>47818</v>
       </c>
       <c r="J24" s="15">
-        <v>47818</v>
+        <v>0</v>
       </c>
       <c r="K24" s="15">
-        <v>0</v>
+        <v>36020</v>
       </c>
       <c r="L24" s="15">
-        <v>36020</v>
+        <v>32356</v>
       </c>
       <c r="M24" s="15">
-        <v>32356</v>
+        <v>38035</v>
       </c>
       <c r="N24" s="15">
-        <v>38035</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+        <v>49197</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>32</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>16</v>
       </c>
@@ -1453,23 +1453,23 @@
       <c r="E26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>18</v>
+      <c r="F26" s="11">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <v>0</v>
       </c>
-      <c r="J26" s="11">
-        <v>0</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>18</v>
+      <c r="J26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0</v>
       </c>
       <c r="L26" s="11">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>21</v>
       </c>
@@ -1490,11 +1490,11 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13">
-        <v>5053</v>
-      </c>
-      <c r="F27" s="13">
         <v>2774</v>
       </c>
+      <c r="F27" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G27" s="13" t="s">
         <v>18</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>22</v>
       </c>
@@ -1529,11 +1529,11 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>1510</v>
-      </c>
-      <c r="F28" s="11">
         <v>1140</v>
       </c>
+      <c r="F28" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G28" s="11" t="s">
         <v>18</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
         <v>23</v>
       </c>
@@ -1568,11 +1568,11 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
-        <v>20</v>
-      </c>
-      <c r="F29" s="13">
         <v>24</v>
       </c>
+      <c r="F29" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G29" s="13" t="s">
         <v>18</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>24</v>
       </c>
@@ -1607,11 +1607,11 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>159</v>
-      </c>
-      <c r="F30" s="11">
         <v>10</v>
       </c>
+      <c r="F30" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G30" s="11" t="s">
         <v>18</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>26</v>
       </c>
@@ -1646,10 +1646,10 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
-        <v>3</v>
-      </c>
-      <c r="F31" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>18</v>
@@ -1676,7 +1676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>27</v>
       </c>
@@ -1685,11 +1685,11 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>46</v>
-      </c>
-      <c r="F32" s="11">
         <v>59</v>
       </c>
+      <c r="F32" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G32" s="11" t="s">
         <v>18</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
         <v>28</v>
       </c>
@@ -1726,35 +1726,35 @@
       <c r="E33" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>18</v>
+      <c r="F33" s="13">
+        <v>11325</v>
       </c>
       <c r="G33" s="13">
-        <v>11325</v>
+        <v>4645</v>
       </c>
       <c r="H33" s="13">
-        <v>4645</v>
+        <v>4611</v>
       </c>
       <c r="I33" s="13">
-        <v>4611</v>
-      </c>
-      <c r="J33" s="13">
         <v>9636</v>
       </c>
-      <c r="K33" s="13" t="s">
-        <v>18</v>
+      <c r="J33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="13">
+        <v>2377</v>
       </c>
       <c r="L33" s="13">
-        <v>2377</v>
+        <v>2791</v>
       </c>
       <c r="M33" s="13">
-        <v>2791</v>
+        <v>2279</v>
       </c>
       <c r="N33" s="13">
-        <v>2279</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>33</v>
       </c>
@@ -1780,8 +1780,8 @@
       <c r="J34" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="11" t="s">
-        <v>18</v>
+      <c r="K34" s="11">
+        <v>0</v>
       </c>
       <c r="L34" s="11">
         <v>0</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>29</v>
       </c>
@@ -1804,35 +1804,35 @@
       <c r="E35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>18</v>
+      <c r="F35" s="13">
+        <v>43</v>
       </c>
       <c r="G35" s="13">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="H35" s="13">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I35" s="13">
-        <v>39</v>
-      </c>
-      <c r="J35" s="13">
         <v>28</v>
       </c>
-      <c r="K35" s="13" t="s">
-        <v>18</v>
+      <c r="J35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="13">
+        <v>4</v>
       </c>
       <c r="L35" s="13">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M35" s="13">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="N35" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>30</v>
       </c>
@@ -1843,72 +1843,72 @@
       <c r="E36" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>18</v>
+      <c r="F36" s="11">
+        <v>1817</v>
       </c>
       <c r="G36" s="11">
-        <v>1817</v>
+        <v>1014</v>
       </c>
       <c r="H36" s="11">
-        <v>1014</v>
+        <v>1294</v>
       </c>
       <c r="I36" s="11">
-        <v>1294</v>
-      </c>
-      <c r="J36" s="11">
         <v>1824</v>
       </c>
-      <c r="K36" s="11" t="s">
-        <v>18</v>
+      <c r="J36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="11">
+        <v>395</v>
       </c>
       <c r="L36" s="11">
-        <v>395</v>
+        <v>1360</v>
       </c>
       <c r="M36" s="11">
-        <v>1360</v>
+        <v>3692</v>
       </c>
       <c r="N36" s="11">
-        <v>3692</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
-        <v>6791</v>
+        <v>4007</v>
       </c>
       <c r="F37" s="15">
-        <v>4007</v>
+        <v>13185</v>
       </c>
       <c r="G37" s="15">
-        <v>13185</v>
+        <v>5677</v>
       </c>
       <c r="H37" s="15">
-        <v>5677</v>
+        <v>5944</v>
       </c>
       <c r="I37" s="15">
-        <v>5944</v>
+        <v>11488</v>
       </c>
       <c r="J37" s="15">
-        <v>11488</v>
+        <v>0</v>
       </c>
       <c r="K37" s="15">
-        <v>0</v>
+        <v>2776</v>
       </c>
       <c r="L37" s="15">
-        <v>2776</v>
+        <v>4172</v>
       </c>
       <c r="M37" s="15">
-        <v>4172</v>
+        <v>5976</v>
       </c>
       <c r="N37" s="15">
-        <v>5976</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
         <v>35</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
         <v>36</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
         <v>37</v>
       </c>
@@ -1971,17 +1971,17 @@
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15">
-        <v>-3100</v>
+        <v>1725</v>
       </c>
       <c r="F40" s="15">
-        <v>1725</v>
+        <v>-890</v>
       </c>
       <c r="G40" s="15">
-        <v>-890</v>
-      </c>
-      <c r="H40" s="15">
         <v>-284</v>
       </c>
+      <c r="H40" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="I40" s="15" t="s">
         <v>18</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
         <v>39</v>
       </c>
@@ -2013,20 +2013,20 @@
       <c r="F41" s="19">
         <v>0</v>
       </c>
-      <c r="G41" s="19">
-        <v>0</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>18</v>
+      <c r="G41" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="19">
+        <v>0</v>
       </c>
       <c r="I41" s="19">
         <v>0</v>
       </c>
-      <c r="J41" s="19">
-        <v>0</v>
-      </c>
-      <c r="K41" s="19" t="s">
-        <v>18</v>
+      <c r="J41" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="19">
+        <v>0</v>
       </c>
       <c r="L41" s="19">
         <v>0</v>
@@ -2038,44 +2038,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15">
-        <v>49547</v>
+        <v>61879</v>
       </c>
       <c r="F42" s="15">
-        <v>61879</v>
+        <v>57468</v>
       </c>
       <c r="G42" s="15">
-        <v>57468</v>
+        <v>55566</v>
       </c>
       <c r="H42" s="15">
-        <v>55566</v>
+        <v>67169</v>
       </c>
       <c r="I42" s="15">
-        <v>67169</v>
+        <v>59306</v>
       </c>
       <c r="J42" s="15">
-        <v>59306</v>
+        <v>0</v>
       </c>
       <c r="K42" s="15">
-        <v>0</v>
+        <v>38796</v>
       </c>
       <c r="L42" s="15">
-        <v>38796</v>
+        <v>36528</v>
       </c>
       <c r="M42" s="15">
-        <v>36528</v>
+        <v>44011</v>
       </c>
       <c r="N42" s="15">
-        <v>44011</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>52520</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2090,7 +2090,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2105,7 +2105,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2120,7 +2120,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>41</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2172,7 +2172,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>42</v>
       </c>
@@ -2189,7 +2189,7 @@
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>16</v>
       </c>
@@ -2200,21 +2200,21 @@
       <c r="E49" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="11" t="s">
-        <v>18</v>
+      <c r="F49" s="11">
+        <v>829230</v>
       </c>
       <c r="G49" s="11">
-        <v>829230</v>
+        <v>739435</v>
       </c>
       <c r="H49" s="11">
-        <v>739435</v>
+        <v>470849</v>
       </c>
       <c r="I49" s="11">
-        <v>470849</v>
-      </c>
-      <c r="J49" s="11">
         <v>309454</v>
       </c>
+      <c r="J49" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K49" s="11" t="s">
         <v>18</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>19</v>
       </c>
@@ -2237,11 +2237,11 @@
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>322486</v>
-      </c>
-      <c r="F50" s="13">
         <v>455142</v>
       </c>
+      <c r="F50" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G50" s="13" t="s">
         <v>18</v>
       </c>
@@ -2254,20 +2254,20 @@
       <c r="J50" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K50" s="13" t="s">
-        <v>18</v>
+      <c r="K50" s="13">
+        <v>642592</v>
       </c>
       <c r="L50" s="13">
-        <v>642592</v>
+        <v>1154574</v>
       </c>
       <c r="M50" s="13">
-        <v>1154574</v>
+        <v>939303</v>
       </c>
       <c r="N50" s="13">
-        <v>939303</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1391946</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>20</v>
       </c>
@@ -2276,11 +2276,11 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>2555</v>
-      </c>
-      <c r="F51" s="11">
         <v>2429</v>
       </c>
+      <c r="F51" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G51" s="11" t="s">
         <v>18</v>
       </c>
@@ -2293,8 +2293,8 @@
       <c r="J51" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="11" t="s">
-        <v>18</v>
+      <c r="K51" s="11">
+        <v>0</v>
       </c>
       <c r="L51" s="11">
         <v>0</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>21</v>
       </c>
@@ -2315,11 +2315,11 @@
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
-        <v>2664007</v>
-      </c>
-      <c r="F52" s="13">
         <v>3427374</v>
       </c>
+      <c r="F52" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G52" s="13" t="s">
         <v>18</v>
       </c>
@@ -2332,20 +2332,20 @@
       <c r="J52" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K52" s="13" t="s">
-        <v>18</v>
+      <c r="K52" s="13">
+        <v>6409547</v>
       </c>
       <c r="L52" s="13">
-        <v>6409547</v>
+        <v>5441960</v>
       </c>
       <c r="M52" s="13">
-        <v>5441960</v>
+        <v>6661525</v>
       </c>
       <c r="N52" s="13">
-        <v>6661525</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8892917</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>22</v>
       </c>
@@ -2354,11 +2354,11 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>642824</v>
-      </c>
-      <c r="F53" s="11">
         <v>880062</v>
       </c>
+      <c r="F53" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G53" s="11" t="s">
         <v>18</v>
       </c>
@@ -2371,20 +2371,20 @@
       <c r="J53" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K53" s="11" t="s">
-        <v>18</v>
+      <c r="K53" s="11">
+        <v>2230492</v>
       </c>
       <c r="L53" s="11">
-        <v>2230492</v>
+        <v>2352984</v>
       </c>
       <c r="M53" s="11">
-        <v>2352984</v>
+        <v>2670105</v>
       </c>
       <c r="N53" s="11">
-        <v>2670105</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2940434</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>23</v>
       </c>
@@ -2393,11 +2393,11 @@
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13">
-        <v>141252</v>
-      </c>
-      <c r="F54" s="13">
         <v>143507</v>
       </c>
+      <c r="F54" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G54" s="13" t="s">
         <v>18</v>
       </c>
@@ -2410,8 +2410,8 @@
       <c r="J54" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K54" s="13" t="s">
-        <v>18</v>
+      <c r="K54" s="13">
+        <v>0</v>
       </c>
       <c r="L54" s="13">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>24</v>
       </c>
@@ -2432,11 +2432,11 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>49175</v>
-      </c>
-      <c r="F55" s="11">
         <v>72973</v>
       </c>
+      <c r="F55" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G55" s="11" t="s">
         <v>18</v>
       </c>
@@ -2449,8 +2449,8 @@
       <c r="J55" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K55" s="11" t="s">
-        <v>18</v>
+      <c r="K55" s="11">
+        <v>0</v>
       </c>
       <c r="L55" s="11">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>25</v>
       </c>
@@ -2471,11 +2471,11 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>32201</v>
-      </c>
-      <c r="F56" s="13">
         <v>45545</v>
       </c>
+      <c r="F56" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G56" s="13" t="s">
         <v>18</v>
       </c>
@@ -2488,8 +2488,8 @@
       <c r="J56" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K56" s="13" t="s">
-        <v>18</v>
+      <c r="K56" s="13">
+        <v>0</v>
       </c>
       <c r="L56" s="13">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>26</v>
       </c>
@@ -2510,11 +2510,11 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>19883</v>
-      </c>
-      <c r="F57" s="11">
         <v>56719</v>
       </c>
+      <c r="F57" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G57" s="11" t="s">
         <v>18</v>
       </c>
@@ -2527,8 +2527,8 @@
       <c r="J57" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K57" s="11" t="s">
-        <v>18</v>
+      <c r="K57" s="11">
+        <v>0</v>
       </c>
       <c r="L57" s="11">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>27</v>
       </c>
@@ -2549,11 +2549,11 @@
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>23263</v>
-      </c>
-      <c r="F58" s="13">
         <v>76734</v>
       </c>
+      <c r="F58" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G58" s="13" t="s">
         <v>18</v>
       </c>
@@ -2566,8 +2566,8 @@
       <c r="J58" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K58" s="13" t="s">
-        <v>18</v>
+      <c r="K58" s="13">
+        <v>0</v>
       </c>
       <c r="L58" s="13">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>28</v>
       </c>
@@ -2590,21 +2590,21 @@
       <c r="E59" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F59" s="11" t="s">
-        <v>18</v>
+      <c r="F59" s="11">
+        <v>2725940</v>
       </c>
       <c r="G59" s="11">
-        <v>2725940</v>
+        <v>3551002</v>
       </c>
       <c r="H59" s="11">
-        <v>3551002</v>
+        <v>3846243</v>
       </c>
       <c r="I59" s="11">
-        <v>3846243</v>
-      </c>
-      <c r="J59" s="11">
         <v>2733253</v>
       </c>
+      <c r="J59" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K59" s="11" t="s">
         <v>18</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>29</v>
       </c>
@@ -2629,35 +2629,35 @@
       <c r="E60" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F60" s="13" t="s">
-        <v>18</v>
+      <c r="F60" s="13">
+        <v>315831</v>
       </c>
       <c r="G60" s="13">
-        <v>315831</v>
+        <v>226452</v>
       </c>
       <c r="H60" s="13">
-        <v>226452</v>
+        <v>292939</v>
       </c>
       <c r="I60" s="13">
-        <v>292939</v>
-      </c>
-      <c r="J60" s="13">
         <v>255605</v>
       </c>
-      <c r="K60" s="13" t="s">
-        <v>18</v>
+      <c r="J60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="13">
+        <v>276176</v>
       </c>
       <c r="L60" s="13">
-        <v>276176</v>
+        <v>641798</v>
       </c>
       <c r="M60" s="13">
-        <v>641798</v>
+        <v>584049</v>
       </c>
       <c r="N60" s="13">
-        <v>584049</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>645830</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>30</v>
       </c>
@@ -2668,21 +2668,21 @@
       <c r="E61" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F61" s="11" t="s">
-        <v>18</v>
+      <c r="F61" s="11">
+        <v>882168</v>
       </c>
       <c r="G61" s="11">
-        <v>882168</v>
+        <v>732555</v>
       </c>
       <c r="H61" s="11">
-        <v>732555</v>
+        <v>1077382</v>
       </c>
       <c r="I61" s="11">
-        <v>1077382</v>
-      </c>
-      <c r="J61" s="11">
         <v>1077278</v>
       </c>
+      <c r="J61" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K61" s="11" t="s">
         <v>18</v>
       </c>
@@ -2696,44 +2696,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
       <c r="E62" s="15">
-        <v>3897646</v>
+        <v>5160485</v>
       </c>
       <c r="F62" s="15">
-        <v>5160485</v>
+        <v>4753169</v>
       </c>
       <c r="G62" s="15">
-        <v>4753169</v>
+        <v>5249444</v>
       </c>
       <c r="H62" s="15">
-        <v>5249444</v>
+        <v>5687413</v>
       </c>
       <c r="I62" s="15">
-        <v>5687413</v>
+        <v>4375590</v>
       </c>
       <c r="J62" s="15">
-        <v>4375590</v>
+        <v>0</v>
       </c>
       <c r="K62" s="15">
-        <v>0</v>
+        <v>9558807</v>
       </c>
       <c r="L62" s="15">
-        <v>9558807</v>
+        <v>9591316</v>
       </c>
       <c r="M62" s="15">
-        <v>9591316</v>
+        <v>10854982</v>
       </c>
       <c r="N62" s="15">
-        <v>10854982</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13871127</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>44</v>
       </c>
@@ -2750,7 +2750,7 @@
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>16</v>
       </c>
@@ -2761,23 +2761,23 @@
       <c r="E64" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="11">
-        <v>0</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>18</v>
+      <c r="F64" s="11">
+        <v>0</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0</v>
       </c>
       <c r="I64" s="11">
         <v>0</v>
       </c>
-      <c r="J64" s="11">
-        <v>0</v>
-      </c>
-      <c r="K64" s="11" t="s">
-        <v>18</v>
+      <c r="J64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" s="11">
+        <v>0</v>
       </c>
       <c r="L64" s="11">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>21</v>
       </c>
@@ -2798,11 +2798,11 @@
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>384984</v>
-      </c>
-      <c r="F65" s="13">
         <v>259236</v>
       </c>
+      <c r="F65" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G65" s="13" t="s">
         <v>18</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>22</v>
       </c>
@@ -2837,11 +2837,11 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>122075</v>
-      </c>
-      <c r="F66" s="11">
         <v>97624</v>
       </c>
+      <c r="F66" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G66" s="11" t="s">
         <v>18</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>23</v>
       </c>
@@ -2876,11 +2876,11 @@
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
-        <v>4511</v>
-      </c>
-      <c r="F67" s="13">
         <v>6274</v>
       </c>
+      <c r="F67" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G67" s="13" t="s">
         <v>18</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>24</v>
       </c>
@@ -2915,11 +2915,11 @@
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>17149</v>
-      </c>
-      <c r="F68" s="11">
         <v>618</v>
       </c>
+      <c r="F68" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G68" s="11" t="s">
         <v>18</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
         <v>26</v>
       </c>
@@ -2954,11 +2954,11 @@
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13">
-        <v>927</v>
-      </c>
-      <c r="F69" s="13">
         <v>75</v>
       </c>
+      <c r="F69" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G69" s="13" t="s">
         <v>18</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>27</v>
       </c>
@@ -2993,11 +2993,11 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>5709</v>
-      </c>
-      <c r="F70" s="11">
         <v>7265</v>
       </c>
+      <c r="F70" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G70" s="11" t="s">
         <v>18</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
         <v>28</v>
       </c>
@@ -3034,35 +3034,35 @@
       <c r="E71" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F71" s="13" t="s">
-        <v>18</v>
+      <c r="F71" s="13">
+        <v>1044991</v>
       </c>
       <c r="G71" s="13">
-        <v>1044991</v>
+        <v>447361</v>
       </c>
       <c r="H71" s="13">
-        <v>447361</v>
+        <v>507800</v>
       </c>
       <c r="I71" s="13">
-        <v>507800</v>
-      </c>
-      <c r="J71" s="13">
         <v>920814</v>
       </c>
-      <c r="K71" s="13" t="s">
-        <v>18</v>
+      <c r="J71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="13">
+        <v>223500</v>
       </c>
       <c r="L71" s="13">
-        <v>223500</v>
+        <v>326515</v>
       </c>
       <c r="M71" s="13">
-        <v>326515</v>
+        <v>395402</v>
       </c>
       <c r="N71" s="13">
-        <v>395402</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>356994</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>33</v>
       </c>
@@ -3088,8 +3088,8 @@
       <c r="J72" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K72" s="11" t="s">
-        <v>18</v>
+      <c r="K72" s="11">
+        <v>0</v>
       </c>
       <c r="L72" s="11">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>29</v>
       </c>
@@ -3112,35 +3112,35 @@
       <c r="E73" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F73" s="13" t="s">
-        <v>18</v>
+      <c r="F73" s="13">
+        <v>12253</v>
       </c>
       <c r="G73" s="13">
-        <v>12253</v>
+        <v>5267</v>
       </c>
       <c r="H73" s="13">
-        <v>5267</v>
+        <v>10385</v>
       </c>
       <c r="I73" s="13">
-        <v>10385</v>
-      </c>
-      <c r="J73" s="13">
         <v>5280</v>
       </c>
-      <c r="K73" s="13" t="s">
-        <v>18</v>
+      <c r="J73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="13">
+        <v>308</v>
       </c>
       <c r="L73" s="13">
-        <v>308</v>
+        <v>2194</v>
       </c>
       <c r="M73" s="13">
-        <v>2194</v>
+        <v>1309</v>
       </c>
       <c r="N73" s="13">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>30</v>
       </c>
@@ -3151,72 +3151,72 @@
       <c r="E74" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F74" s="11" t="s">
-        <v>18</v>
+      <c r="F74" s="11">
+        <v>170689</v>
       </c>
       <c r="G74" s="11">
-        <v>170689</v>
+        <v>97760</v>
       </c>
       <c r="H74" s="11">
-        <v>97760</v>
+        <v>132591</v>
       </c>
       <c r="I74" s="11">
-        <v>132591</v>
-      </c>
-      <c r="J74" s="11">
         <v>191012</v>
       </c>
-      <c r="K74" s="11" t="s">
-        <v>18</v>
+      <c r="J74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" s="11">
+        <v>38653</v>
       </c>
       <c r="L74" s="11">
-        <v>38653</v>
+        <v>192047</v>
       </c>
       <c r="M74" s="11">
-        <v>192047</v>
+        <v>633846</v>
       </c>
       <c r="N74" s="11">
-        <v>633846</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>283960</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15">
-        <v>535355</v>
+        <v>371092</v>
       </c>
       <c r="F75" s="15">
-        <v>371092</v>
+        <v>1227933</v>
       </c>
       <c r="G75" s="15">
-        <v>1227933</v>
+        <v>550388</v>
       </c>
       <c r="H75" s="15">
-        <v>550388</v>
+        <v>650776</v>
       </c>
       <c r="I75" s="15">
-        <v>650776</v>
+        <v>1117106</v>
       </c>
       <c r="J75" s="15">
-        <v>1117106</v>
+        <v>0</v>
       </c>
       <c r="K75" s="15">
-        <v>0</v>
+        <v>262461</v>
       </c>
       <c r="L75" s="15">
-        <v>262461</v>
+        <v>520756</v>
       </c>
       <c r="M75" s="15">
-        <v>520756</v>
+        <v>1030557</v>
       </c>
       <c r="N75" s="15">
-        <v>1030557</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>646356</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="16" t="s">
         <v>45</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="M76" s="17"/>
       <c r="N76" s="17"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="18" t="s">
         <v>36</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="14" t="s">
         <v>37</v>
       </c>
@@ -3279,17 +3279,17 @@
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="15">
-        <v>-269641</v>
+        <v>146510</v>
       </c>
       <c r="F78" s="15">
-        <v>146510</v>
+        <v>-83287</v>
       </c>
       <c r="G78" s="15">
-        <v>-83287</v>
-      </c>
-      <c r="H78" s="15">
         <v>-32327</v>
       </c>
+      <c r="H78" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="I78" s="15" t="s">
         <v>18</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="18" t="s">
         <v>39</v>
       </c>
@@ -3323,20 +3323,20 @@
       <c r="F79" s="19">
         <v>0</v>
       </c>
-      <c r="G79" s="19">
-        <v>0</v>
-      </c>
-      <c r="H79" s="19" t="s">
-        <v>18</v>
+      <c r="G79" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="19">
+        <v>0</v>
       </c>
       <c r="I79" s="19">
         <v>0</v>
       </c>
-      <c r="J79" s="19">
-        <v>0</v>
-      </c>
-      <c r="K79" s="19" t="s">
-        <v>18</v>
+      <c r="J79" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" s="19">
+        <v>0</v>
       </c>
       <c r="L79" s="19">
         <v>0</v>
@@ -3348,44 +3348,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15">
-        <v>4163360</v>
+        <v>5678087</v>
       </c>
       <c r="F80" s="15">
-        <v>5678087</v>
+        <v>5897815</v>
       </c>
       <c r="G80" s="15">
-        <v>5897815</v>
+        <v>5767505</v>
       </c>
       <c r="H80" s="15">
-        <v>5767505</v>
+        <v>6338189</v>
       </c>
       <c r="I80" s="15">
-        <v>6338189</v>
+        <v>5492696</v>
       </c>
       <c r="J80" s="15">
-        <v>5492696</v>
+        <v>0</v>
       </c>
       <c r="K80" s="15">
-        <v>0</v>
+        <v>9821268</v>
       </c>
       <c r="L80" s="15">
-        <v>9821268</v>
+        <v>10112072</v>
       </c>
       <c r="M80" s="15">
-        <v>10112072</v>
+        <v>11885539</v>
       </c>
       <c r="N80" s="15">
-        <v>11885539</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14517483</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3400,7 +3400,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3415,7 +3415,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3430,7 +3430,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B84" s="7" t="s">
         <v>46</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3482,7 +3482,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>47</v>
       </c>
@@ -3499,7 +3499,7 @@
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>16</v>
       </c>
@@ -3510,21 +3510,21 @@
       <c r="E87" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F87" s="11" t="s">
-        <v>18</v>
+      <c r="F87" s="11">
+        <v>254072387</v>
       </c>
       <c r="G87" s="11">
-        <v>254072387</v>
+        <v>514210709</v>
       </c>
       <c r="H87" s="11">
-        <v>514210709</v>
+        <v>494070304</v>
       </c>
       <c r="I87" s="11">
-        <v>494070304</v>
-      </c>
-      <c r="J87" s="11">
         <v>392708122</v>
       </c>
+      <c r="J87" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K87" s="11" t="s">
         <v>18</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>19</v>
       </c>
@@ -3547,11 +3547,11 @@
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
-        <v>159173741</v>
-      </c>
-      <c r="F88" s="13">
         <v>236437403</v>
       </c>
+      <c r="F88" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G88" s="13" t="s">
         <v>18</v>
       </c>
@@ -3561,23 +3561,23 @@
       <c r="I88" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J88" s="13" t="s">
-        <v>18</v>
+      <c r="J88" s="13">
+        <v>426580652</v>
       </c>
       <c r="K88" s="13">
-        <v>426580652</v>
+        <v>397643564</v>
       </c>
       <c r="L88" s="13">
-        <v>397643564</v>
+        <v>513144000</v>
       </c>
       <c r="M88" s="13">
-        <v>513144000</v>
+        <v>591500630</v>
       </c>
       <c r="N88" s="13">
-        <v>591500630</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>560816277</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>20</v>
       </c>
@@ -3586,11 +3586,11 @@
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
-        <v>141944444</v>
-      </c>
-      <c r="F89" s="11">
         <v>134944444</v>
       </c>
+      <c r="F89" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G89" s="11" t="s">
         <v>18</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>21</v>
       </c>
@@ -3625,11 +3625,11 @@
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13">
-        <v>74603237</v>
-      </c>
-      <c r="F90" s="13">
         <v>79778730</v>
       </c>
+      <c r="F90" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G90" s="13" t="s">
         <v>18</v>
       </c>
@@ -3639,23 +3639,23 @@
       <c r="I90" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J90" s="13" t="s">
-        <v>18</v>
+      <c r="J90" s="13">
+        <v>81209741</v>
       </c>
       <c r="K90" s="13">
-        <v>81209741</v>
+        <v>242712322</v>
       </c>
       <c r="L90" s="13">
-        <v>242712322</v>
+        <v>255863463</v>
       </c>
       <c r="M90" s="13">
-        <v>255863463</v>
+        <v>249392572</v>
       </c>
       <c r="N90" s="13">
-        <v>249392572</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>249247933</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>22</v>
       </c>
@@ -3664,11 +3664,11 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>98141069</v>
-      </c>
-      <c r="F91" s="11">
         <v>99229000</v>
       </c>
+      <c r="F91" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G91" s="11" t="s">
         <v>18</v>
       </c>
@@ -3678,23 +3678,23 @@
       <c r="I91" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J91" s="11" t="s">
-        <v>18</v>
+      <c r="J91" s="11">
+        <v>105766642</v>
       </c>
       <c r="K91" s="11">
-        <v>105766642</v>
+        <v>300645909</v>
       </c>
       <c r="L91" s="11">
-        <v>300645909</v>
+        <v>324057843</v>
       </c>
       <c r="M91" s="11">
-        <v>324057843</v>
+        <v>319619943</v>
       </c>
       <c r="N91" s="11">
-        <v>319619943</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>310565484</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>23</v>
       </c>
@@ -3703,11 +3703,11 @@
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13">
-        <v>242284734</v>
-      </c>
-      <c r="F92" s="13">
         <v>259506329</v>
       </c>
+      <c r="F92" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G92" s="13" t="s">
         <v>18</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>24</v>
       </c>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
-        <v>163916667</v>
-      </c>
-      <c r="F93" s="11">
         <v>174159905</v>
       </c>
+      <c r="F93" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G93" s="11" t="s">
         <v>18</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>25</v>
       </c>
@@ -3781,11 +3781,11 @@
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13">
-        <v>90963277</v>
-      </c>
-      <c r="F94" s="13">
         <v>89655512</v>
       </c>
+      <c r="F94" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G94" s="13" t="s">
         <v>18</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>26</v>
       </c>
@@ -3820,11 +3820,11 @@
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
-        <v>233917647</v>
-      </c>
-      <c r="F95" s="11">
         <v>255490991</v>
       </c>
+      <c r="F95" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G95" s="11" t="s">
         <v>18</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>27</v>
       </c>
@@ -3859,11 +3859,11 @@
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13">
-        <v>100705628</v>
-      </c>
-      <c r="F96" s="13">
         <v>114187500</v>
       </c>
+      <c r="F96" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G96" s="13" t="s">
         <v>18</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>28</v>
       </c>
@@ -3900,21 +3900,21 @@
       <c r="E97" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F97" s="11" t="s">
-        <v>18</v>
+      <c r="F97" s="11">
+        <v>74950077</v>
       </c>
       <c r="G97" s="11">
-        <v>74950077</v>
+        <v>87079183</v>
       </c>
       <c r="H97" s="11">
-        <v>87079183</v>
+        <v>79430085</v>
       </c>
       <c r="I97" s="11">
-        <v>79430085</v>
-      </c>
-      <c r="J97" s="11">
         <v>77372275</v>
       </c>
+      <c r="J97" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K97" s="11" t="s">
         <v>18</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>29</v>
       </c>
@@ -3939,35 +3939,35 @@
       <c r="E98" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F98" s="13" t="s">
-        <v>18</v>
+      <c r="F98" s="13">
+        <v>184985768</v>
       </c>
       <c r="G98" s="13">
-        <v>184985768</v>
+        <v>189817267</v>
       </c>
       <c r="H98" s="13">
-        <v>189817267</v>
+        <v>194706471</v>
       </c>
       <c r="I98" s="13">
-        <v>194706471</v>
+        <v>191035127</v>
       </c>
       <c r="J98" s="13">
-        <v>191035127</v>
+        <v>177166238</v>
       </c>
       <c r="K98" s="13">
-        <v>177166238</v>
+        <v>478641248</v>
       </c>
       <c r="L98" s="13">
-        <v>478641248</v>
+        <v>407232234</v>
       </c>
       <c r="M98" s="13">
-        <v>407232234</v>
+        <v>422611433</v>
       </c>
       <c r="N98" s="13">
-        <v>422611433</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>411881378</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>30</v>
       </c>
@@ -3978,21 +3978,21 @@
       <c r="E99" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F99" s="11" t="s">
-        <v>18</v>
+      <c r="F99" s="11">
+        <v>97100626</v>
       </c>
       <c r="G99" s="11">
-        <v>97100626</v>
+        <v>108318054</v>
       </c>
       <c r="H99" s="11">
-        <v>108318054</v>
+        <v>104145191</v>
       </c>
       <c r="I99" s="11">
-        <v>104145191</v>
-      </c>
-      <c r="J99" s="11">
         <v>103924175</v>
       </c>
+      <c r="J99" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K99" s="11" t="s">
         <v>18</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>49</v>
       </c>
@@ -4023,7 +4023,7 @@
       <c r="M100" s="9"/>
       <c r="N100" s="9"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>16</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>21</v>
       </c>
@@ -4071,11 +4071,11 @@
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13">
-        <v>76189195</v>
-      </c>
-      <c r="F102" s="13">
         <v>93452055</v>
       </c>
+      <c r="F102" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G102" s="13" t="s">
         <v>18</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>22</v>
       </c>
@@ -4110,11 +4110,11 @@
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11">
-        <v>80844371</v>
-      </c>
-      <c r="F103" s="11">
         <v>85635088</v>
       </c>
+      <c r="F103" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G103" s="11" t="s">
         <v>18</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>23</v>
       </c>
@@ -4149,11 +4149,11 @@
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="13">
-        <v>225550000</v>
-      </c>
-      <c r="F104" s="13">
         <v>261416667</v>
       </c>
+      <c r="F104" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G104" s="13" t="s">
         <v>18</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>24</v>
       </c>
@@ -4188,11 +4188,11 @@
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11">
-        <v>107855346</v>
-      </c>
-      <c r="F105" s="11">
         <v>61800000</v>
       </c>
+      <c r="F105" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G105" s="11" t="s">
         <v>18</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>26</v>
       </c>
@@ -4226,8 +4226,8 @@
         <v>48</v>
       </c>
       <c r="D106" s="13"/>
-      <c r="E106" s="13">
-        <v>309000000</v>
+      <c r="E106" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>18</v>
@@ -4257,7 +4257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>27</v>
       </c>
@@ -4266,11 +4266,11 @@
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
-        <v>124108696</v>
-      </c>
-      <c r="F107" s="11">
         <v>123135593</v>
       </c>
+      <c r="F107" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G107" s="11" t="s">
         <v>18</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>28</v>
       </c>
@@ -4307,35 +4307,35 @@
       <c r="E108" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F108" s="13" t="s">
-        <v>18</v>
+      <c r="F108" s="13">
+        <v>87420528</v>
       </c>
       <c r="G108" s="13">
-        <v>87420528</v>
+        <v>96310226</v>
       </c>
       <c r="H108" s="13">
-        <v>96310226</v>
+        <v>110127955</v>
       </c>
       <c r="I108" s="13">
-        <v>110127955</v>
+        <v>95559776</v>
       </c>
       <c r="J108" s="13">
-        <v>95559776</v>
+        <v>91165312</v>
       </c>
       <c r="K108" s="13">
-        <v>91165312</v>
+        <v>94026083</v>
       </c>
       <c r="L108" s="13">
-        <v>94026083</v>
+        <v>116988535</v>
       </c>
       <c r="M108" s="13">
-        <v>116988535</v>
+        <v>173498025</v>
       </c>
       <c r="N108" s="13">
-        <v>173498025</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>187496849</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>33</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="12" t="s">
         <v>29</v>
       </c>
@@ -4385,35 +4385,35 @@
       <c r="E110" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F110" s="13" t="s">
-        <v>18</v>
+      <c r="F110" s="13">
+        <v>255981481</v>
       </c>
       <c r="G110" s="13">
-        <v>255981481</v>
+        <v>292611111</v>
       </c>
       <c r="H110" s="13">
-        <v>292611111</v>
+        <v>266282051</v>
       </c>
       <c r="I110" s="13">
-        <v>266282051</v>
+        <v>188571429</v>
       </c>
       <c r="J110" s="13">
-        <v>188571429</v>
+        <v>292768595</v>
       </c>
       <c r="K110" s="13">
-        <v>292768595</v>
+        <v>77000000</v>
       </c>
       <c r="L110" s="13">
-        <v>77000000</v>
+        <v>104476190</v>
       </c>
       <c r="M110" s="13">
-        <v>104476190</v>
+        <v>261800000</v>
       </c>
       <c r="N110" s="13">
-        <v>261800000</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+        <v>415538462</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>30</v>
       </c>
@@ -4424,35 +4424,35 @@
       <c r="E111" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F111" s="11" t="s">
-        <v>18</v>
+      <c r="F111" s="11">
+        <v>88060590</v>
       </c>
       <c r="G111" s="11">
-        <v>88060590</v>
+        <v>96410256</v>
       </c>
       <c r="H111" s="11">
-        <v>96410256</v>
+        <v>102465997</v>
       </c>
       <c r="I111" s="11">
-        <v>102465997</v>
+        <v>104721491</v>
       </c>
       <c r="J111" s="11">
-        <v>104721491</v>
+        <v>98210361</v>
       </c>
       <c r="K111" s="11">
-        <v>98210361</v>
+        <v>97855696</v>
       </c>
       <c r="L111" s="11">
-        <v>97855696</v>
+        <v>141211029</v>
       </c>
       <c r="M111" s="11">
-        <v>141211029</v>
+        <v>171680932</v>
       </c>
       <c r="N111" s="11">
-        <v>171680932</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>201963016</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4467,7 +4467,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4482,7 +4482,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4497,7 +4497,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>50</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4549,7 +4549,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>51</v>
       </c>
@@ -4566,7 +4566,7 @@
       <c r="M117" s="9"/>
       <c r="N117" s="9"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>16</v>
       </c>
@@ -4577,21 +4577,21 @@
       <c r="E118" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F118" s="11" t="s">
-        <v>18</v>
+      <c r="F118" s="11">
+        <v>-954004</v>
       </c>
       <c r="G118" s="11">
-        <v>-954004</v>
+        <v>-363715</v>
       </c>
       <c r="H118" s="11">
-        <v>-363715</v>
+        <v>-272168</v>
       </c>
       <c r="I118" s="11">
-        <v>-272168</v>
-      </c>
-      <c r="J118" s="11">
         <v>-183141</v>
       </c>
+      <c r="J118" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K118" s="11" t="s">
         <v>18</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="12" t="s">
         <v>19</v>
       </c>
@@ -4614,11 +4614,11 @@
       </c>
       <c r="D119" s="13"/>
       <c r="E119" s="13">
-        <v>-231237</v>
-      </c>
-      <c r="F119" s="13">
         <v>-334945</v>
       </c>
+      <c r="F119" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G119" s="13" t="s">
         <v>18</v>
       </c>
@@ -4628,23 +4628,23 @@
       <c r="I119" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J119" s="13" t="s">
-        <v>18</v>
+      <c r="J119" s="13">
+        <v>-1033342</v>
       </c>
       <c r="K119" s="13">
-        <v>-1033342</v>
+        <v>-462985</v>
       </c>
       <c r="L119" s="13">
-        <v>-462985</v>
+        <v>-1052193</v>
       </c>
       <c r="M119" s="13">
-        <v>-1052193</v>
+        <v>-913637</v>
       </c>
       <c r="N119" s="13">
-        <v>-913637</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1398177</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>20</v>
       </c>
@@ -4653,10 +4653,10 @@
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11">
-        <v>-825</v>
-      </c>
-      <c r="F120" s="11">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>18</v>
@@ -4667,8 +4667,8 @@
       <c r="I120" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J120" s="11" t="s">
-        <v>18</v>
+      <c r="J120" s="11">
+        <v>0</v>
       </c>
       <c r="K120" s="11">
         <v>0</v>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="12" t="s">
         <v>21</v>
       </c>
@@ -4692,11 +4692,11 @@
       </c>
       <c r="D121" s="13"/>
       <c r="E121" s="13">
-        <v>-1467794</v>
-      </c>
-      <c r="F121" s="13">
         <v>-1931178</v>
       </c>
+      <c r="F121" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G121" s="13" t="s">
         <v>18</v>
       </c>
@@ -4706,23 +4706,23 @@
       <c r="I121" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J121" s="13" t="s">
-        <v>18</v>
+      <c r="J121" s="13">
+        <v>-8932259</v>
       </c>
       <c r="K121" s="13">
-        <v>-8932259</v>
+        <v>-4343105</v>
       </c>
       <c r="L121" s="13">
-        <v>-4343105</v>
+        <v>-4244994</v>
       </c>
       <c r="M121" s="13">
-        <v>-4244994</v>
+        <v>-5022395</v>
       </c>
       <c r="N121" s="13">
-        <v>-5022395</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-6636954</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>22</v>
       </c>
@@ -4731,11 +4731,11 @@
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
-        <v>-219788</v>
-      </c>
-      <c r="F122" s="11">
         <v>-457806</v>
       </c>
+      <c r="F122" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G122" s="11" t="s">
         <v>18</v>
       </c>
@@ -4745,23 +4745,23 @@
       <c r="I122" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J122" s="11" t="s">
-        <v>18</v>
+      <c r="J122" s="11">
+        <v>-2603851</v>
       </c>
       <c r="K122" s="11">
-        <v>-2603851</v>
+        <v>-1364518</v>
       </c>
       <c r="L122" s="11">
-        <v>-1364518</v>
+        <v>-1604991</v>
       </c>
       <c r="M122" s="11">
-        <v>-1604991</v>
+        <v>-1798101</v>
       </c>
       <c r="N122" s="11">
-        <v>-1798101</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1906166</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="12" t="s">
         <v>23</v>
       </c>
@@ -4770,11 +4770,11 @@
       </c>
       <c r="D123" s="13"/>
       <c r="E123" s="13">
-        <v>-39758</v>
-      </c>
-      <c r="F123" s="13">
         <v>-57032</v>
       </c>
+      <c r="F123" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G123" s="13" t="s">
         <v>18</v>
       </c>
@@ -4784,8 +4784,8 @@
       <c r="I123" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J123" s="13" t="s">
-        <v>18</v>
+      <c r="J123" s="13">
+        <v>0</v>
       </c>
       <c r="K123" s="13">
         <v>0</v>
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>24</v>
       </c>
@@ -4809,11 +4809,11 @@
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
-        <v>-20401</v>
-      </c>
-      <c r="F124" s="11">
         <v>-37761</v>
       </c>
+      <c r="F124" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G124" s="11" t="s">
         <v>18</v>
       </c>
@@ -4823,8 +4823,8 @@
       <c r="I124" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J124" s="11" t="s">
-        <v>18</v>
+      <c r="J124" s="11">
+        <v>0</v>
       </c>
       <c r="K124" s="11">
         <v>0</v>
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="12" t="s">
         <v>25</v>
       </c>
@@ -4848,11 +4848,11 @@
       </c>
       <c r="D125" s="13"/>
       <c r="E125" s="13">
-        <v>-13151</v>
-      </c>
-      <c r="F125" s="13">
         <v>-29299</v>
       </c>
+      <c r="F125" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G125" s="13" t="s">
         <v>18</v>
       </c>
@@ -4862,8 +4862,8 @@
       <c r="I125" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J125" s="13" t="s">
-        <v>18</v>
+      <c r="J125" s="13">
+        <v>0</v>
       </c>
       <c r="K125" s="13">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>26</v>
       </c>
@@ -4887,11 +4887,11 @@
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>-1882</v>
-      </c>
-      <c r="F126" s="11">
         <v>-20245</v>
       </c>
+      <c r="F126" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G126" s="11" t="s">
         <v>18</v>
       </c>
@@ -4901,8 +4901,8 @@
       <c r="I126" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J126" s="11" t="s">
-        <v>18</v>
+      <c r="J126" s="11">
+        <v>0</v>
       </c>
       <c r="K126" s="11">
         <v>0</v>
@@ -4917,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>27</v>
       </c>
@@ -4926,11 +4926,11 @@
       </c>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
-        <v>-9653</v>
-      </c>
-      <c r="F127" s="13">
         <v>-43624</v>
       </c>
+      <c r="F127" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G127" s="13" t="s">
         <v>18</v>
       </c>
@@ -4940,8 +4940,8 @@
       <c r="I127" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J127" s="13" t="s">
-        <v>18</v>
+      <c r="J127" s="13">
+        <v>0</v>
       </c>
       <c r="K127" s="13">
         <v>0</v>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>28</v>
       </c>
@@ -4967,21 +4967,21 @@
       <c r="E128" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F128" s="11" t="s">
-        <v>18</v>
+      <c r="F128" s="11">
+        <v>-6250012</v>
       </c>
       <c r="G128" s="11">
-        <v>-6250012</v>
+        <v>-2171503</v>
       </c>
       <c r="H128" s="11">
-        <v>-2171503</v>
+        <v>-2677074</v>
       </c>
       <c r="I128" s="11">
-        <v>-2677074</v>
-      </c>
-      <c r="J128" s="11">
         <v>-2085820</v>
       </c>
+      <c r="J128" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K128" s="11" t="s">
         <v>18</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="12" t="s">
         <v>29</v>
       </c>
@@ -5006,35 +5006,35 @@
       <c r="E129" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F129" s="13" t="s">
-        <v>18</v>
+      <c r="F129" s="13">
+        <v>-468940</v>
       </c>
       <c r="G129" s="13">
-        <v>-468940</v>
+        <v>-120074</v>
       </c>
       <c r="H129" s="13">
-        <v>-120074</v>
+        <v>-165696</v>
       </c>
       <c r="I129" s="13">
-        <v>-165696</v>
+        <v>-153651</v>
       </c>
       <c r="J129" s="13">
-        <v>-153651</v>
+        <v>-168179</v>
       </c>
       <c r="K129" s="13">
-        <v>-168179</v>
+        <v>-148613</v>
       </c>
       <c r="L129" s="13">
-        <v>-148613</v>
+        <v>-397071</v>
       </c>
       <c r="M129" s="13">
-        <v>-397071</v>
+        <v>-395507</v>
       </c>
       <c r="N129" s="13">
-        <v>-395507</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-441821</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>30</v>
       </c>
@@ -5045,21 +5045,21 @@
       <c r="E130" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F130" s="11" t="s">
-        <v>18</v>
+      <c r="F130" s="11">
+        <v>-1634559</v>
       </c>
       <c r="G130" s="11">
-        <v>-1634559</v>
+        <v>-448622</v>
       </c>
       <c r="H130" s="11">
-        <v>-448622</v>
+        <v>-712174</v>
       </c>
       <c r="I130" s="11">
-        <v>-712174</v>
-      </c>
-      <c r="J130" s="11">
         <v>-773755</v>
       </c>
+      <c r="J130" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K130" s="11" t="s">
         <v>18</v>
       </c>
@@ -5073,44 +5073,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15">
-        <v>-2004489</v>
+        <v>-2911847</v>
       </c>
       <c r="F131" s="15">
-        <v>-2911847</v>
+        <v>-9307515</v>
       </c>
       <c r="G131" s="15">
-        <v>-9307515</v>
+        <v>-3103914</v>
       </c>
       <c r="H131" s="15">
-        <v>-3103914</v>
+        <v>-3827112</v>
       </c>
       <c r="I131" s="15">
-        <v>-3827112</v>
+        <v>-3196367</v>
       </c>
       <c r="J131" s="15">
-        <v>-3196367</v>
+        <v>-12737631</v>
       </c>
       <c r="K131" s="15">
-        <v>-12737631</v>
+        <v>-6319221</v>
       </c>
       <c r="L131" s="15">
-        <v>-6319221</v>
+        <v>-7299249</v>
       </c>
       <c r="M131" s="15">
-        <v>-7299249</v>
+        <v>-8129640</v>
       </c>
       <c r="N131" s="15">
-        <v>-8129640</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-10383118</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="8" t="s">
         <v>53</v>
       </c>
@@ -5127,7 +5127,7 @@
       <c r="M132" s="9"/>
       <c r="N132" s="9"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="10" t="s">
         <v>16</v>
       </c>
@@ -5138,14 +5138,14 @@
       <c r="E133" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F133" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" s="11">
-        <v>0</v>
-      </c>
-      <c r="H133" s="11" t="s">
-        <v>18</v>
+      <c r="F133" s="11">
+        <v>0</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" s="11">
+        <v>0</v>
       </c>
       <c r="I133" s="11">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="12" t="s">
         <v>21</v>
       </c>
@@ -5175,11 +5175,11 @@
       </c>
       <c r="D134" s="13"/>
       <c r="E134" s="13">
-        <v>-212953</v>
-      </c>
-      <c r="F134" s="13">
         <v>-124283</v>
       </c>
+      <c r="F134" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G134" s="13" t="s">
         <v>18</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>22</v>
       </c>
@@ -5214,11 +5214,11 @@
       </c>
       <c r="D135" s="11"/>
       <c r="E135" s="11">
-        <v>-58487</v>
-      </c>
-      <c r="F135" s="11">
         <v>-58432</v>
       </c>
+      <c r="F135" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G135" s="11" t="s">
         <v>18</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="12" t="s">
         <v>23</v>
       </c>
@@ -5253,11 +5253,11 @@
       </c>
       <c r="D136" s="13"/>
       <c r="E136" s="13">
-        <v>-1388</v>
-      </c>
-      <c r="F136" s="13">
         <v>-2282</v>
       </c>
+      <c r="F136" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G136" s="13" t="s">
         <v>18</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>24</v>
       </c>
@@ -5292,11 +5292,11 @@
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="11">
-        <v>-11785</v>
-      </c>
-      <c r="F137" s="11">
         <v>-3690</v>
       </c>
+      <c r="F137" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G137" s="11" t="s">
         <v>18</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="12" t="s">
         <v>26</v>
       </c>
@@ -5331,11 +5331,11 @@
       </c>
       <c r="D138" s="13"/>
       <c r="E138" s="13">
-        <v>-286</v>
-      </c>
-      <c r="F138" s="13">
         <v>-14</v>
       </c>
+      <c r="F138" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G138" s="13" t="s">
         <v>18</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>27</v>
       </c>
@@ -5370,11 +5370,11 @@
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="11">
-        <v>-2460</v>
-      </c>
-      <c r="F139" s="11">
         <v>-3419</v>
       </c>
+      <c r="F139" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G139" s="11" t="s">
         <v>18</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="12" t="s">
         <v>28</v>
       </c>
@@ -5411,35 +5411,35 @@
       <c r="E140" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F140" s="13" t="s">
-        <v>18</v>
+      <c r="F140" s="13">
+        <v>-919049</v>
       </c>
       <c r="G140" s="13">
-        <v>-919049</v>
+        <v>-247138</v>
       </c>
       <c r="H140" s="13">
-        <v>-247138</v>
+        <v>-254086</v>
       </c>
       <c r="I140" s="13">
-        <v>-254086</v>
+        <v>-585152</v>
       </c>
       <c r="J140" s="13">
-        <v>-585152</v>
+        <v>-466877</v>
       </c>
       <c r="K140" s="13">
-        <v>-466877</v>
+        <v>-390925</v>
       </c>
       <c r="L140" s="13">
-        <v>-390925</v>
+        <v>-542578</v>
       </c>
       <c r="M140" s="13">
-        <v>-542578</v>
+        <v>-433666</v>
       </c>
       <c r="N140" s="13">
-        <v>-433666</v>
-      </c>
-    </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-353000</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="s">
         <v>33</v>
       </c>
@@ -5462,8 +5462,8 @@
       <c r="I141" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J141" s="11" t="s">
-        <v>18</v>
+      <c r="J141" s="11">
+        <v>0</v>
       </c>
       <c r="K141" s="11">
         <v>0</v>
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="12" t="s">
         <v>29</v>
       </c>
@@ -5489,35 +5489,35 @@
       <c r="E142" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F142" s="13" t="s">
-        <v>18</v>
+      <c r="F142" s="13">
+        <v>-8972</v>
       </c>
       <c r="G142" s="13">
-        <v>-8972</v>
+        <v>-1811</v>
       </c>
       <c r="H142" s="13">
-        <v>-1811</v>
+        <v>-4181</v>
       </c>
       <c r="I142" s="13">
-        <v>-4181</v>
+        <v>-5719</v>
       </c>
       <c r="J142" s="13">
-        <v>-5719</v>
+        <v>-12007</v>
       </c>
       <c r="K142" s="13">
-        <v>-12007</v>
+        <v>-1031</v>
       </c>
       <c r="L142" s="13">
-        <v>-1031</v>
+        <v>-7401</v>
       </c>
       <c r="M142" s="13">
-        <v>-7401</v>
+        <v>-1263</v>
       </c>
       <c r="N142" s="13">
-        <v>-1263</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1959</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
         <v>30</v>
       </c>
@@ -5528,72 +5528,72 @@
       <c r="E143" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F143" s="11" t="s">
-        <v>18</v>
+      <c r="F143" s="11">
+        <v>-283807</v>
       </c>
       <c r="G143" s="11">
-        <v>-283807</v>
+        <v>-67265</v>
       </c>
       <c r="H143" s="11">
-        <v>-67265</v>
+        <v>-89074</v>
       </c>
       <c r="I143" s="11">
-        <v>-89074</v>
+        <v>-113390</v>
       </c>
       <c r="J143" s="11">
-        <v>-113390</v>
+        <v>-249395</v>
       </c>
       <c r="K143" s="11">
-        <v>-249395</v>
+        <v>-72649</v>
       </c>
       <c r="L143" s="11">
-        <v>-72649</v>
+        <v>-276000</v>
       </c>
       <c r="M143" s="11">
-        <v>-276000</v>
+        <v>-730033</v>
       </c>
       <c r="N143" s="11">
-        <v>-730033</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-328474</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C144" s="15"/>
       <c r="D144" s="15"/>
       <c r="E144" s="15">
-        <v>-287359</v>
+        <v>-192120</v>
       </c>
       <c r="F144" s="15">
-        <v>-192120</v>
+        <v>-1211828</v>
       </c>
       <c r="G144" s="15">
-        <v>-1211828</v>
+        <v>-316214</v>
       </c>
       <c r="H144" s="15">
-        <v>-316214</v>
+        <v>-347341</v>
       </c>
       <c r="I144" s="15">
-        <v>-347341</v>
+        <v>-704261</v>
       </c>
       <c r="J144" s="15">
-        <v>-704261</v>
+        <v>-728279</v>
       </c>
       <c r="K144" s="15">
-        <v>-728279</v>
+        <v>-464605</v>
       </c>
       <c r="L144" s="15">
-        <v>-464605</v>
+        <v>-825979</v>
       </c>
       <c r="M144" s="15">
-        <v>-825979</v>
+        <v>-1164962</v>
       </c>
       <c r="N144" s="15">
-        <v>-1164962</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-683433</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="16" t="s">
         <v>55</v>
       </c>
@@ -5610,7 +5610,7 @@
       <c r="M145" s="17"/>
       <c r="N145" s="17"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="18" t="s">
         <v>56</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="14" t="s">
         <v>37</v>
       </c>
@@ -5664,8 +5664,8 @@
       <c r="G147" s="15">
         <v>0</v>
       </c>
-      <c r="H147" s="15">
-        <v>0</v>
+      <c r="H147" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I147" s="15" t="s">
         <v>18</v>
@@ -5686,7 +5686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="18" t="s">
         <v>39</v>
       </c>
@@ -5700,11 +5700,11 @@
       <c r="F148" s="19">
         <v>0</v>
       </c>
-      <c r="G148" s="19">
-        <v>0</v>
-      </c>
-      <c r="H148" s="19" t="s">
-        <v>18</v>
+      <c r="G148" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H148" s="19">
+        <v>0</v>
       </c>
       <c r="I148" s="19">
         <v>0</v>
@@ -5725,44 +5725,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
       <c r="E149" s="15">
-        <v>-2291848</v>
+        <v>-3103967</v>
       </c>
       <c r="F149" s="15">
-        <v>-3103967</v>
+        <v>-10519343</v>
       </c>
       <c r="G149" s="15">
-        <v>-10519343</v>
+        <v>-3420128</v>
       </c>
       <c r="H149" s="15">
-        <v>-3420128</v>
+        <v>-4174453</v>
       </c>
       <c r="I149" s="15">
-        <v>-4174453</v>
+        <v>-3900628</v>
       </c>
       <c r="J149" s="15">
-        <v>-3900628</v>
+        <v>-13465910</v>
       </c>
       <c r="K149" s="15">
-        <v>-13465910</v>
+        <v>-6783826</v>
       </c>
       <c r="L149" s="15">
-        <v>-6783826</v>
+        <v>-8125228</v>
       </c>
       <c r="M149" s="15">
-        <v>-8125228</v>
+        <v>-9294602</v>
       </c>
       <c r="N149" s="15">
-        <v>-9294602</v>
-      </c>
-    </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-11066551</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -5777,7 +5777,7 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5792,7 +5792,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5807,7 +5807,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
         <v>57</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5859,7 +5859,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>58</v>
       </c>
@@ -5876,7 +5876,7 @@
       <c r="M155" s="9"/>
       <c r="N155" s="9"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>16</v>
       </c>
@@ -5887,21 +5887,21 @@
       <c r="E156" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F156" s="11" t="s">
-        <v>18</v>
+      <c r="F156" s="11">
+        <v>769369</v>
       </c>
       <c r="G156" s="11">
-        <v>769369</v>
+        <v>375720</v>
       </c>
       <c r="H156" s="11">
-        <v>375720</v>
+        <v>198681</v>
       </c>
       <c r="I156" s="11">
-        <v>198681</v>
-      </c>
-      <c r="J156" s="11">
         <v>126313</v>
       </c>
+      <c r="J156" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K156" s="11" t="s">
         <v>18</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="12" t="s">
         <v>19</v>
       </c>
@@ -5924,11 +5924,11 @@
       </c>
       <c r="D157" s="13"/>
       <c r="E157" s="13">
-        <v>91249</v>
-      </c>
-      <c r="F157" s="13">
         <v>120197</v>
       </c>
+      <c r="F157" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G157" s="13" t="s">
         <v>18</v>
       </c>
@@ -5938,23 +5938,23 @@
       <c r="I157" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J157" s="13" t="s">
-        <v>18</v>
+      <c r="J157" s="13">
+        <v>915705</v>
       </c>
       <c r="K157" s="13">
-        <v>915705</v>
+        <v>179607</v>
       </c>
       <c r="L157" s="13">
-        <v>179607</v>
+        <v>102381</v>
       </c>
       <c r="M157" s="13">
-        <v>102381</v>
+        <v>25666</v>
       </c>
       <c r="N157" s="13">
-        <v>25666</v>
-      </c>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-6231</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>20</v>
       </c>
@@ -5963,11 +5963,11 @@
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="11">
-        <v>1730</v>
-      </c>
-      <c r="F158" s="11">
         <v>2472</v>
       </c>
+      <c r="F158" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G158" s="11" t="s">
         <v>18</v>
       </c>
@@ -5977,8 +5977,8 @@
       <c r="I158" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J158" s="11" t="s">
-        <v>18</v>
+      <c r="J158" s="11">
+        <v>0</v>
       </c>
       <c r="K158" s="11">
         <v>0</v>
@@ -5993,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="12" t="s">
         <v>21</v>
       </c>
@@ -6002,11 +6002,11 @@
       </c>
       <c r="D159" s="13"/>
       <c r="E159" s="13">
-        <v>1196213</v>
-      </c>
-      <c r="F159" s="13">
         <v>1496196</v>
       </c>
+      <c r="F159" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G159" s="13" t="s">
         <v>18</v>
       </c>
@@ -6016,23 +6016,23 @@
       <c r="I159" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J159" s="13" t="s">
-        <v>18</v>
+      <c r="J159" s="13">
+        <v>3797774</v>
       </c>
       <c r="K159" s="13">
-        <v>3797774</v>
+        <v>2066442</v>
       </c>
       <c r="L159" s="13">
-        <v>2066442</v>
+        <v>1196966</v>
       </c>
       <c r="M159" s="13">
-        <v>1196966</v>
+        <v>1639130</v>
       </c>
       <c r="N159" s="13">
-        <v>1639130</v>
-      </c>
-    </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2255963</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>22</v>
       </c>
@@ -6041,11 +6041,11 @@
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11">
-        <v>423036</v>
-      </c>
-      <c r="F160" s="11">
         <v>422256</v>
       </c>
+      <c r="F160" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G160" s="11" t="s">
         <v>18</v>
       </c>
@@ -6055,23 +6055,23 @@
       <c r="I160" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J160" s="11" t="s">
-        <v>18</v>
+      <c r="J160" s="11">
+        <v>1277679</v>
       </c>
       <c r="K160" s="11">
-        <v>1277679</v>
+        <v>865974</v>
       </c>
       <c r="L160" s="11">
-        <v>865974</v>
+        <v>747993</v>
       </c>
       <c r="M160" s="11">
-        <v>747993</v>
+        <v>872004</v>
       </c>
       <c r="N160" s="11">
-        <v>872004</v>
-      </c>
-    </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1034268</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="12" t="s">
         <v>23</v>
       </c>
@@ -6080,11 +6080,11 @@
       </c>
       <c r="D161" s="13"/>
       <c r="E161" s="13">
-        <v>101494</v>
-      </c>
-      <c r="F161" s="13">
         <v>86475</v>
       </c>
+      <c r="F161" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G161" s="13" t="s">
         <v>18</v>
       </c>
@@ -6094,8 +6094,8 @@
       <c r="I161" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J161" s="13" t="s">
-        <v>18</v>
+      <c r="J161" s="13">
+        <v>0</v>
       </c>
       <c r="K161" s="13">
         <v>0</v>
@@ -6110,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>24</v>
       </c>
@@ -6119,11 +6119,11 @@
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
-        <v>28774</v>
-      </c>
-      <c r="F162" s="11">
         <v>35212</v>
       </c>
+      <c r="F162" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G162" s="11" t="s">
         <v>18</v>
       </c>
@@ -6133,8 +6133,8 @@
       <c r="I162" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J162" s="11" t="s">
-        <v>18</v>
+      <c r="J162" s="11">
+        <v>0</v>
       </c>
       <c r="K162" s="11">
         <v>0</v>
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="12" t="s">
         <v>25</v>
       </c>
@@ -6158,11 +6158,11 @@
       </c>
       <c r="D163" s="13"/>
       <c r="E163" s="13">
-        <v>19050</v>
-      </c>
-      <c r="F163" s="13">
         <v>16246</v>
       </c>
+      <c r="F163" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G163" s="13" t="s">
         <v>18</v>
       </c>
@@ -6172,8 +6172,8 @@
       <c r="I163" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J163" s="13" t="s">
-        <v>18</v>
+      <c r="J163" s="13">
+        <v>0</v>
       </c>
       <c r="K163" s="13">
         <v>0</v>
@@ -6188,7 +6188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>26</v>
       </c>
@@ -6197,11 +6197,11 @@
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11">
-        <v>18001</v>
-      </c>
-      <c r="F164" s="11">
         <v>36474</v>
       </c>
+      <c r="F164" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G164" s="11" t="s">
         <v>18</v>
       </c>
@@ -6211,8 +6211,8 @@
       <c r="I164" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J164" s="11" t="s">
-        <v>18</v>
+      <c r="J164" s="11">
+        <v>0</v>
       </c>
       <c r="K164" s="11">
         <v>0</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="12" t="s">
         <v>27</v>
       </c>
@@ -6236,11 +6236,11 @@
       </c>
       <c r="D165" s="13"/>
       <c r="E165" s="13">
-        <v>13610</v>
-      </c>
-      <c r="F165" s="13">
         <v>33110</v>
       </c>
+      <c r="F165" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G165" s="13" t="s">
         <v>18</v>
       </c>
@@ -6250,8 +6250,8 @@
       <c r="I165" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J165" s="13" t="s">
-        <v>18</v>
+      <c r="J165" s="13">
+        <v>0</v>
       </c>
       <c r="K165" s="13">
         <v>0</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>28</v>
       </c>
@@ -6277,21 +6277,21 @@
       <c r="E166" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F166" s="11" t="s">
-        <v>18</v>
+      <c r="F166" s="11">
+        <v>4739693</v>
       </c>
       <c r="G166" s="11">
-        <v>4739693</v>
+        <v>1379499</v>
       </c>
       <c r="H166" s="11">
-        <v>1379499</v>
+        <v>1169169</v>
       </c>
       <c r="I166" s="11">
-        <v>1169169</v>
-      </c>
-      <c r="J166" s="11">
         <v>647433</v>
       </c>
+      <c r="J166" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K166" s="11" t="s">
         <v>18</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="12" t="s">
         <v>29</v>
       </c>
@@ -6316,35 +6316,35 @@
       <c r="E167" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F167" s="13" t="s">
-        <v>18</v>
+      <c r="F167" s="13">
+        <v>570865</v>
       </c>
       <c r="G167" s="13">
-        <v>570865</v>
+        <v>106378</v>
       </c>
       <c r="H167" s="13">
-        <v>106378</v>
+        <v>126169</v>
       </c>
       <c r="I167" s="13">
-        <v>126169</v>
+        <v>101954</v>
       </c>
       <c r="J167" s="13">
-        <v>101954</v>
+        <v>38574</v>
       </c>
       <c r="K167" s="13">
-        <v>38574</v>
+        <v>127563</v>
       </c>
       <c r="L167" s="13">
-        <v>127563</v>
+        <v>244727</v>
       </c>
       <c r="M167" s="13">
-        <v>244727</v>
+        <v>188542</v>
       </c>
       <c r="N167" s="13">
-        <v>188542</v>
-      </c>
-    </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+        <v>204009</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>30</v>
       </c>
@@ -6355,21 +6355,21 @@
       <c r="E168" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F168" s="11" t="s">
-        <v>18</v>
+      <c r="F168" s="11">
+        <v>1438870</v>
       </c>
       <c r="G168" s="11">
-        <v>1438870</v>
+        <v>283933</v>
       </c>
       <c r="H168" s="11">
-        <v>283933</v>
+        <v>365208</v>
       </c>
       <c r="I168" s="11">
-        <v>365208</v>
-      </c>
-      <c r="J168" s="11">
         <v>303523</v>
       </c>
+      <c r="J168" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K168" s="11" t="s">
         <v>18</v>
       </c>
@@ -6383,44 +6383,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C169" s="15"/>
       <c r="D169" s="15"/>
       <c r="E169" s="15">
-        <v>1893157</v>
+        <v>2248638</v>
       </c>
       <c r="F169" s="15">
-        <v>2248638</v>
+        <v>7518797</v>
       </c>
       <c r="G169" s="15">
-        <v>7518797</v>
+        <v>2145530</v>
       </c>
       <c r="H169" s="15">
-        <v>2145530</v>
+        <v>1859227</v>
       </c>
       <c r="I169" s="15">
-        <v>1859227</v>
+        <v>1179223</v>
       </c>
       <c r="J169" s="15">
-        <v>1179223</v>
+        <v>6029732</v>
       </c>
       <c r="K169" s="15">
-        <v>6029732</v>
+        <v>3239586</v>
       </c>
       <c r="L169" s="15">
-        <v>3239586</v>
+        <v>2292067</v>
       </c>
       <c r="M169" s="15">
-        <v>2292067</v>
+        <v>2725342</v>
       </c>
       <c r="N169" s="15">
-        <v>2725342</v>
-      </c>
-    </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3488009</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="8" t="s">
         <v>60</v>
       </c>
@@ -6437,7 +6437,7 @@
       <c r="M170" s="9"/>
       <c r="N170" s="9"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="10" t="s">
         <v>16</v>
       </c>
@@ -6448,14 +6448,14 @@
       <c r="E171" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F171" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G171" s="11">
-        <v>0</v>
-      </c>
-      <c r="H171" s="11" t="s">
-        <v>18</v>
+      <c r="F171" s="11">
+        <v>0</v>
+      </c>
+      <c r="G171" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H171" s="11">
+        <v>0</v>
       </c>
       <c r="I171" s="11">
         <v>0</v>
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="12" t="s">
         <v>21</v>
       </c>
@@ -6485,11 +6485,11 @@
       </c>
       <c r="D172" s="13"/>
       <c r="E172" s="13">
-        <v>172031</v>
-      </c>
-      <c r="F172" s="13">
         <v>134953</v>
       </c>
+      <c r="F172" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G172" s="13" t="s">
         <v>18</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="10" t="s">
         <v>22</v>
       </c>
@@ -6524,11 +6524,11 @@
       </c>
       <c r="D173" s="11"/>
       <c r="E173" s="11">
-        <v>63588</v>
-      </c>
-      <c r="F173" s="11">
         <v>39192</v>
       </c>
+      <c r="F173" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G173" s="11" t="s">
         <v>18</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="12" t="s">
         <v>23</v>
       </c>
@@ -6563,11 +6563,11 @@
       </c>
       <c r="D174" s="13"/>
       <c r="E174" s="13">
-        <v>3123</v>
-      </c>
-      <c r="F174" s="13">
         <v>3992</v>
       </c>
+      <c r="F174" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G174" s="13" t="s">
         <v>18</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="10" t="s">
         <v>24</v>
       </c>
@@ -6602,11 +6602,11 @@
       </c>
       <c r="D175" s="11"/>
       <c r="E175" s="11">
-        <v>5364</v>
-      </c>
-      <c r="F175" s="11">
         <v>-3072</v>
       </c>
+      <c r="F175" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G175" s="11" t="s">
         <v>18</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="12" t="s">
         <v>26</v>
       </c>
@@ -6641,11 +6641,11 @@
       </c>
       <c r="D176" s="13"/>
       <c r="E176" s="13">
-        <v>641</v>
-      </c>
-      <c r="F176" s="13">
         <v>61</v>
       </c>
+      <c r="F176" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G176" s="13" t="s">
         <v>18</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="10" t="s">
         <v>27</v>
       </c>
@@ -6680,11 +6680,11 @@
       </c>
       <c r="D177" s="11"/>
       <c r="E177" s="11">
-        <v>3249</v>
-      </c>
-      <c r="F177" s="11">
         <v>3846</v>
       </c>
+      <c r="F177" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G177" s="11" t="s">
         <v>18</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="12" t="s">
         <v>28</v>
       </c>
@@ -6721,35 +6721,35 @@
       <c r="E178" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F178" s="13" t="s">
-        <v>18</v>
+      <c r="F178" s="13">
+        <v>965825</v>
       </c>
       <c r="G178" s="13">
-        <v>965825</v>
+        <v>200223</v>
       </c>
       <c r="H178" s="13">
-        <v>200223</v>
+        <v>253714</v>
       </c>
       <c r="I178" s="13">
-        <v>253714</v>
+        <v>335662</v>
       </c>
       <c r="J178" s="13">
-        <v>335662</v>
+        <v>295812</v>
       </c>
       <c r="K178" s="13">
-        <v>295812</v>
+        <v>-167425</v>
       </c>
       <c r="L178" s="13">
-        <v>-167425</v>
+        <v>-216063</v>
       </c>
       <c r="M178" s="13">
-        <v>-216063</v>
+        <v>-38264</v>
       </c>
       <c r="N178" s="13">
-        <v>-38264</v>
-      </c>
-    </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="10" t="s">
         <v>33</v>
       </c>
@@ -6772,8 +6772,8 @@
       <c r="I179" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J179" s="11" t="s">
-        <v>18</v>
+      <c r="J179" s="11">
+        <v>0</v>
       </c>
       <c r="K179" s="11">
         <v>0</v>
@@ -6788,7 +6788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="12" t="s">
         <v>29</v>
       </c>
@@ -6799,35 +6799,35 @@
       <c r="E180" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F180" s="13" t="s">
-        <v>18</v>
+      <c r="F180" s="13">
+        <v>18674</v>
       </c>
       <c r="G180" s="13">
-        <v>18674</v>
+        <v>3456</v>
       </c>
       <c r="H180" s="13">
-        <v>3456</v>
+        <v>6204</v>
       </c>
       <c r="I180" s="13">
-        <v>6204</v>
+        <v>-439</v>
       </c>
       <c r="J180" s="13">
-        <v>-439</v>
+        <v>23418</v>
       </c>
       <c r="K180" s="13">
-        <v>23418</v>
+        <v>-723</v>
       </c>
       <c r="L180" s="13">
-        <v>-723</v>
+        <v>-5207</v>
       </c>
       <c r="M180" s="13">
-        <v>-5207</v>
+        <v>46</v>
       </c>
       <c r="N180" s="13">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="10" t="s">
         <v>30</v>
       </c>
@@ -6838,72 +6838,72 @@
       <c r="E181" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F181" s="11" t="s">
-        <v>18</v>
+      <c r="F181" s="11">
+        <v>200174</v>
       </c>
       <c r="G181" s="11">
-        <v>200174</v>
+        <v>30495</v>
       </c>
       <c r="H181" s="11">
-        <v>30495</v>
+        <v>43517</v>
       </c>
       <c r="I181" s="11">
-        <v>43517</v>
+        <v>77622</v>
       </c>
       <c r="J181" s="11">
-        <v>77622</v>
+        <v>63405</v>
       </c>
       <c r="K181" s="11">
-        <v>63405</v>
+        <v>-33996</v>
       </c>
       <c r="L181" s="11">
-        <v>-33996</v>
+        <v>-83953</v>
       </c>
       <c r="M181" s="11">
-        <v>-83953</v>
+        <v>-96187</v>
       </c>
       <c r="N181" s="11">
-        <v>-96187</v>
-      </c>
-    </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-44514</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="14" t="s">
         <v>61</v>
       </c>
       <c r="C182" s="15"/>
       <c r="D182" s="15"/>
       <c r="E182" s="15">
-        <v>247996</v>
+        <v>178972</v>
       </c>
       <c r="F182" s="15">
-        <v>178972</v>
+        <v>1184673</v>
       </c>
       <c r="G182" s="15">
-        <v>1184673</v>
+        <v>234174</v>
       </c>
       <c r="H182" s="15">
-        <v>234174</v>
+        <v>303435</v>
       </c>
       <c r="I182" s="15">
-        <v>303435</v>
+        <v>412845</v>
       </c>
       <c r="J182" s="15">
-        <v>412845</v>
+        <v>382635</v>
       </c>
       <c r="K182" s="15">
-        <v>382635</v>
+        <v>-202144</v>
       </c>
       <c r="L182" s="15">
-        <v>-202144</v>
+        <v>-305223</v>
       </c>
       <c r="M182" s="15">
-        <v>-305223</v>
+        <v>-134405</v>
       </c>
       <c r="N182" s="15">
-        <v>-134405</v>
-      </c>
-    </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-37077</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="16" t="s">
         <v>62</v>
       </c>
@@ -6920,7 +6920,7 @@
       <c r="M183" s="17"/>
       <c r="N183" s="17"/>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="18" t="s">
         <v>63</v>
       </c>
@@ -6957,41 +6957,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C185" s="15"/>
       <c r="D185" s="15"/>
       <c r="E185" s="15">
-        <v>2141153</v>
+        <v>2427610</v>
       </c>
       <c r="F185" s="15">
-        <v>2427610</v>
+        <v>8703470</v>
       </c>
       <c r="G185" s="15">
-        <v>8703470</v>
+        <v>2379704</v>
       </c>
       <c r="H185" s="15">
-        <v>2379704</v>
+        <v>2162662</v>
       </c>
       <c r="I185" s="15">
-        <v>2162662</v>
+        <v>1592068</v>
       </c>
       <c r="J185" s="15">
-        <v>1592068</v>
+        <v>6412367</v>
       </c>
       <c r="K185" s="15">
-        <v>6412367</v>
+        <v>3037442</v>
       </c>
       <c r="L185" s="15">
-        <v>3037442</v>
+        <v>1986844</v>
       </c>
       <c r="M185" s="15">
-        <v>1986844</v>
+        <v>2590937</v>
       </c>
       <c r="N185" s="15">
-        <v>2590937</v>
+        <v>3450932</v>
       </c>
     </row>
   </sheetData>
